--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1596117.299779362</v>
+        <v>-1599682.801652911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13769618.03520509</v>
+        <v>13766078.15886258</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>89.91713543632972</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>119.6042788303891</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>105.2279122647533</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104614796</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.8701987037816</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.12550965999404</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>57.75164041100309</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>14.74884174817132</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614796</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>242.4887121347938</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>366.6527802725509</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>15.04697460930532</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>52.1076912845302</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>283.0004384157311</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.536868114663</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362794</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717784</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442478</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>32.25192601321728</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>87.16751742380571</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372782</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362794</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>80.18526455514095</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.3845596236374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>21.09451568412743</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>40.45709444512094</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541617</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357251</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414342</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404354</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380455</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497648</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.6707049994324</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825605</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548579</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414343</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404355</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419574</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007188</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035429</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219401</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507312</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484039</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723253</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380457</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349765</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943242</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,19 +3004,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738178</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838881</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828894</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431726</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459967</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643939</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193185</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908577</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147791</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804995</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922188</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736778</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920511</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697378</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412926</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875578</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927757</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059325</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658112</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880403</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908643</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092616</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380527</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357254</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596467</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253672</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708645</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369188</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.001891997864</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117998</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593883</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357251</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3977,16 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.51244933637</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="C2" t="n">
-        <v>469.51244933637</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475491</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475491</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>135.6402479253927</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>135.6402479253927</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253927</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354848</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465275</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523735</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1655.950509194109</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="V2" t="n">
-        <v>1655.950509194109</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W2" t="n">
-        <v>1655.950509194109</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="X2" t="n">
-        <v>1266.497904127166</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="Y2" t="n">
-        <v>870.0071950477668</v>
+        <v>928.4833248820494</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021406</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622328</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837131</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946009</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777327</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475491</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475491</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>555.1059253660266</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.318461375479</v>
+        <v>1068.708603975715</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737746</v>
+        <v>1582.311282585403</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1987.9326513018</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475491</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475491</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475491</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475491</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475491</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475491</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V4" t="n">
-        <v>443.2442849253657</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W4" t="n">
-        <v>443.2442849253657</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X4" t="n">
-        <v>443.2442849253657</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.1322237420091</v>
+        <v>380.5141442812514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1778.292260658347</v>
+        <v>1278.176883026126</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.957270344202</v>
+        <v>885.0013815290567</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.51614156087</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774144</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477962</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L5" t="n">
-        <v>575.6798488177211</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827813</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465275</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y5" t="n">
-        <v>1778.292260658347</v>
+        <v>1678.671628737523</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021406</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622328</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837131</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946009</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777327</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146765</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>456.6878063607576</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V7" t="n">
-        <v>211.7497132953094</v>
+        <v>155.8130805288502</v>
       </c>
       <c r="W7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="X7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1720.443170444836</v>
+        <v>1375.198722157411</v>
       </c>
       <c r="C8" t="n">
-        <v>1327.267668947766</v>
+        <v>982.0232206603412</v>
       </c>
       <c r="D8" t="n">
-        <v>941.8265401644339</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="E8" t="n">
-        <v>941.8265401644339</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>524.9321016944117</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4808,46 +4808,46 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.895775511779</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X8" t="n">
-        <v>1720.443170444836</v>
+        <v>1771.689431236809</v>
       </c>
       <c r="Y8" t="n">
-        <v>1720.443170444836</v>
+        <v>1375.198722157411</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>388.6745401624866</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>233.0414270650013</v>
+        <v>793.1268795456108</v>
       </c>
       <c r="E10" t="n">
-        <v>233.0414270650013</v>
+        <v>637.5680674048133</v>
       </c>
       <c r="F10" t="n">
-        <v>233.0414270650013</v>
+        <v>480.2421326177862</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>311.9880787172318</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>156.5095276787258</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.972249543668</v>
+        <v>1929.070886272804</v>
       </c>
       <c r="C11" t="n">
-        <v>997.5930231927925</v>
+        <v>1607.691659921928</v>
       </c>
       <c r="D11" t="n">
-        <v>711.7339944900339</v>
+        <v>1294.04680628479</v>
       </c>
       <c r="E11" t="n">
-        <v>380.9467447527724</v>
+        <v>963.2595565475278</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527724</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2556.972116723526</v>
       </c>
       <c r="W11" t="n">
-        <v>2290.021483962825</v>
+        <v>2257.769356838007</v>
       </c>
       <c r="X11" t="n">
-        <v>1972.365154042076</v>
+        <v>2257.769356838007</v>
       </c>
       <c r="Y11" t="n">
-        <v>1647.670720108871</v>
+        <v>2257.769356838007</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.690231197904</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.7456042322061</v>
+        <v>391.1926183007853</v>
       </c>
       <c r="C13" t="n">
-        <v>347.7456042322061</v>
+        <v>292.7837755129684</v>
       </c>
       <c r="D13" t="n">
-        <v>263.9087662809147</v>
+        <v>208.946937561677</v>
       </c>
       <c r="E13" t="n">
-        <v>263.9087662809147</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3791066400816</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581895</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027739</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138166</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295802</v>
+        <v>1061.637344838666</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628202</v>
+        <v>867.454274805684</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401918</v>
+        <v>655.9201478830555</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693688</v>
+        <v>655.9201478830555</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322061</v>
+        <v>504.6043618458928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880363</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>815.124613155088</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312597</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723525</v>
+        <v>2594.58310685706</v>
       </c>
       <c r="W14" t="n">
-        <v>2556.972116723525</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="X14" t="n">
-        <v>2239.315786802776</v>
+        <v>2295.380346971541</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445566</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.5980990866647</v>
+        <v>387.394170518808</v>
       </c>
       <c r="C16" t="n">
-        <v>167.1892562988478</v>
+        <v>387.394170518808</v>
       </c>
       <c r="D16" t="n">
-        <v>167.1892562988478</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="E16" t="n">
-        <v>83.42671930424424</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="F16" t="n">
-        <v>83.42671930424424</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>83.42671930424424</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>83.42671930424424</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.042825624545</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915633</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689348</v>
+        <v>700.9940036267938</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689348</v>
+        <v>538.7099565559707</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.009842631772</v>
+        <v>387.394170518808</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,16 +5540,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5598,19 +5598,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975457</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924241</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885602</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072696</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462929</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446716</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184714</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567354</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879445</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296525</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918821</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161914</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.955836619424</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.30217123301</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678972</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388021</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662639</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884793</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025982</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,25 +6294,25 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>591.6304904949648</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754499</v>
+        <v>1219.402140121646</v>
       </c>
       <c r="N27" t="n">
         <v>1875.180111332205</v>
@@ -6327,13 +6327,13 @@
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985356</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746019</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796863</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6415,19 +6415,19 @@
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026486</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424154</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218611</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390271</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678972</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429866</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791088</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.472264835669</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2516.334910202705</v>
@@ -6479,7 +6479,7 @@
         <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985347</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414152</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.755098887806</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879672</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774601</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463667</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>255.2650543744571</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>725.8995309769018</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1219.219822695431</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.872843314994</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304694</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924093</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782685</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076157</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076157</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2353.183537567296</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965122</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431902</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729546</v>
+        <v>611.4615154993336</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872942</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395509</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000931</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124409</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584488</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6959,28 +6959,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885605</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.403597936958</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218811</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634919</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588732</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072704</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462934</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411556</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364858</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918825</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161919</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194244</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330104</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984018</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974534</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975461</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803437</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924275</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,31 +7193,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>691.2836731261136</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1319.055322752795</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
         <v>1974.833293963354</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885602</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072696</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462929</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918821</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161914</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.955836619424</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.30217123301</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7397,13 +7397,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7442,19 +7442,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129449</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404066</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,10 +7667,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7679,7 +7679,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573995</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462926</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>210.7551798924853</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>192.9080169436495</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>346.6921127901684</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>179.098947615633</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>182.0886348685486</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>647.8084594790935</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837483</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093691</v>
+        <v>458.3732307488511</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,10 +8456,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>471.7186805737889</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>447.5171231095482</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>199.6102425680207</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,7 +9246,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9656,7 +9656,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9720,22 +9720,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796058</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701423</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,7 +10665,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,22 +10899,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>288.3536975034276</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.50796668503585</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>103.1103135759271</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993867</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465751</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.24127495359964</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456089</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.3385740219804</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>187.4221642536439</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>193.0629299702355</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717784</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442478</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.59065303043346</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>168.9616912082813</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.378737124468898e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1201310.931377716</v>
+        <v>1199506.288536435</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1201310.931377716</v>
+        <v>1199506.288536435</v>
       </c>
     </row>
     <row r="4">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>126232.5246653497</v>
+      </c>
+      <c r="C2" t="n">
+        <v>126232.5246653497</v>
+      </c>
+      <c r="D2" t="n">
         <v>126232.5246653498</v>
-      </c>
-      <c r="C2" t="n">
-        <v>126232.5246653498</v>
-      </c>
-      <c r="D2" t="n">
-        <v>126232.5246653497</v>
       </c>
       <c r="E2" t="n">
         <v>111551.3163970803</v>
@@ -26332,28 +26332,28 @@
         <v>126232.5246653497</v>
       </c>
       <c r="I2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653498</v>
       </c>
       <c r="J2" t="n">
         <v>126232.5246653498</v>
       </c>
       <c r="K2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="L2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653495</v>
       </c>
       <c r="M2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="N2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="O2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="P2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668184</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277132</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766782</v>
+        <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766782</v>
+        <v>151510.2534766781</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355081.037380399</v>
+        <v>-350128.043952344</v>
       </c>
       <c r="C6" t="n">
-        <v>-172876.0890885434</v>
+        <v>-176269.386918289</v>
       </c>
       <c r="D6" t="n">
-        <v>-181196.9294741131</v>
+        <v>-188933.2186975044</v>
       </c>
       <c r="E6" t="n">
-        <v>-205267.518253483</v>
+        <v>-205477.2498001724</v>
       </c>
       <c r="F6" t="n">
-        <v>-93144.95677943845</v>
+        <v>-93354.68832612787</v>
       </c>
       <c r="G6" t="n">
-        <v>-178631.7401551121</v>
+        <v>-178631.7401551123</v>
       </c>
       <c r="H6" t="n">
-        <v>-131206.4146184302</v>
+        <v>-131206.4146184303</v>
       </c>
       <c r="I6" t="n">
-        <v>-131206.4146184302</v>
+        <v>-131206.4146184301</v>
       </c>
       <c r="J6" t="n">
-        <v>-344248.3322157156</v>
+        <v>-337732.0470611426</v>
       </c>
       <c r="K6" t="n">
-        <v>-137446.1830212131</v>
+        <v>-137446.1830212132</v>
       </c>
       <c r="L6" t="n">
-        <v>-192628.7719558343</v>
+        <v>-196677.6091663068</v>
       </c>
       <c r="M6" t="n">
-        <v>-173407.2440780533</v>
+        <v>-174458.9390892416</v>
       </c>
       <c r="N6" t="n">
-        <v>-131206.4146184303</v>
+        <v>-131206.4146184304</v>
       </c>
       <c r="O6" t="n">
         <v>-158974.1086612015</v>
       </c>
       <c r="P6" t="n">
-        <v>-131206.4146184302</v>
+        <v>-131206.4146184304</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293137</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="J4" t="n">
-        <v>917.0607368443785</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095196</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014444</v>
-      </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208523</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346413</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551323</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346416</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407379</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208523</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346413</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>163.2780668334177</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>247.6847658510063</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>17.95957579094626</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270624</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.485739800606638</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,13 +27546,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>140.6271657791627</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>331.4921060710956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>366.8378757473276</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270624</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>20.83083959259022</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14.93393722294803</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.9841533475715</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>114.4638220770187</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.65888910788253</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,7 +28068,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71049010669012</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901383</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.9912744743164</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>30.27223765901311</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431638</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431638</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159991</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738832864</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253943</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>76.793854550313</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733466</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,40 +30141,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155842</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082802</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082797</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30651,40 +30651,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,10 +30882,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.07534195013919</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>43.78952560586544</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>254.0045539012796</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>88.11079445971897</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>28.84046513805685</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>498.6899681413094</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>161.7050793552024</v>
+        <v>373.0011178946845</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>381.6583337168707</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>107.2231205187088</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477935001</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851028</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.5073351254078</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192275</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201027</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698312</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268755</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215733</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122745</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.599714906096</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425273</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192275</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>474.7566830047994</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698311</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597565</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215731</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271083</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122745</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446887</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576889</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993878</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653314</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>197.8808906882712</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
-        <v>1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023942</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634531391</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>198.2933506465093</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526631</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634530932</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873216</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
